--- a/2025-03-03_4o-mini_feedback_sheets/overall_spec/Anxiety_spec_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_spec/Anxiety_spec_overall.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hist" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="soc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="obj" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Pain relieved with regurgitation is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia can be associated with anxiety disorders, as anxiety can lead to muscle tension and esophageal spasms.</t>
+          <t>This finding can be associated with anxiety as it may indicate a psychosomatic component where stress or anxiety leads to gastrointestinal symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Raynauds phenomenon reported is present.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If antacids are ineffective, it suggests a physical cause for symptoms rather than anxiety, which typically does not cause such specific gastrointestinal issues.</t>
+          <t>Raynaud's phenomenon is more indicative of a connective tissue disorder rather than anxiety.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Current heartburn is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Similar to liquids, difficulty swallowing solids can indicate anxiety-related muscle tension or esophageal issues.</t>
+          <t>Heartburn can be exacerbated by stress and anxiety, which can increase stomach acid production.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present.</t>
+          <t>Telangiectasias reported is present.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Chronic heartburn is more indicative of a physical condition like GERD rather than anxiety, which usually presents with more acute symptoms.</t>
+          <t>Telangiectasias are more commonly associated with systemic conditions like scleroderma, not anxiety.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Weight loss reported is present.</t>
+          <t>Current reflux is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Weight loss can occur in anxiety disorders due to decreased appetite or stress-related factors.</t>
+          <t>Reflux symptoms can be worsened by anxiety due to increased gastric acid secretion and esophageal sensitivity.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Long-standing reflux (duration of years) is present.</t>
+          <t>Hand pain out of proportion to other joints is present.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Similar to heartburn, chronic reflux points towards a physical gastrointestinal issue rather than anxiety.</t>
+          <t>This type of pain distribution is more suggestive of a rheumatologic condition rather than anxiety.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pain when swallowing (aka odynophagia) is present.</t>
+          <t>Pain worse when lying down (positional) is present.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Odynophagia can be exacerbated by anxiety, as stress can lead to increased sensitivity and discomfort in the esophagus.</t>
+          <t>Anxiety can lead to increased awareness and sensitivity to bodily sensations, including positional pain.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Current heartburn is present.</t>
+          <t>Difficulty swallowing solids is present.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Current heartburn suggests an ongoing physical condition rather than anxiety, which would not typically cause such specific symptoms.</t>
+          <t>Dysphagia for solids is more often related to structural or motility disorders rather than anxiety.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tightness (character of pain) is present.</t>
+          <t>Pain is reproducible with arm movements is present.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chest tightness is a common symptom in anxiety disorders, often described as a feeling of pressure or discomfort.</t>
+          <t>This could suggest musculoskeletal pain, which can be perceived more intensely in anxious individuals.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Current reflux is present.</t>
+          <t>Weight loss reported is present.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Current reflux indicates a physical gastrointestinal issue, which is less likely to be caused by anxiety alone.</t>
+          <t>Unintentional weight loss is more commonly associated with organic disease rather than anxiety.</t>
         </is>
       </c>
     </row>
@@ -612,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Female is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anxiety disorders are more prevalent in females compared to males, which supports the likelihood of a diagnosis of Anxiety.</t>
+          <t>Anxiety disorders are more prevalent in females compared to males.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of environmental allergies</t>
+          <t>Absence of diagnosed hypertension.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Environmental allergies can often exacerbate anxiety symptoms; their absence may indicate a lower likelihood of anxiety being present.</t>
+          <t>Hypertension can be associated with anxiety, and its absence may reduce the likelihood of anxiety.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age</t>
+          <t>Middle age is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anxiety disorders often manifest in middle age, making this demographic factor supportive of a diagnosis of Anxiety.</t>
+          <t>Anxiety can commonly present or persist into middle age.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of asthma</t>
+          <t>Absence of recent medication changes.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Asthma can be associated with anxiety due to the stress of managing a chronic condition; its absence may suggest a lower likelihood of anxiety.</t>
+          <t>Recent medication changes can sometimes trigger or exacerbate anxiety symptoms, and their absence may reduce the likelihood of anxiety.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine</t>
+          <t>Takes amlodipine is present.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine is often prescribed for hypertension, which can be associated with anxiety; however, the absence of hypertension may suggest anxiety-related symptoms.</t>
+          <t>While not directly linked to anxiety, medication use can sometimes be associated with anxiety symptoms.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of eczema</t>
+          <t>Absence of obesity.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Eczema can be linked to anxiety due to its impact on self-image and comfort; its absence may indicate a lower likelihood of anxiety.</t>
+          <t>Obesity is sometimes associated with anxiety, and its absence may reduce the likelihood of anxiety.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of alcohol use disorder</t>
+          <t>Absence of alcohol use disorder.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While alcohol use disorder can co-occur with anxiety, its absence may indicate a higher likelihood of anxiety being present as a primary issue.</t>
+          <t>The absence of alcohol use disorder removes a potential confounding factor that can mask or complicate anxiety symptoms.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absence of diagnosed hypertension</t>
+          <t>Absence of type 2 diabetes.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hypertension is often associated with anxiety; its absence may suggest that anxiety is less likely to be present.</t>
+          <t>Type 2 diabetes can be associated with anxiety, and its absence may reduce the likelihood of anxiety.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of nicotine dependence</t>
+          <t>Absence of nicotine dependence.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Similar to alcohol use, the absence of nicotine dependence may suggest that anxiety is not being masked by substance use, supporting its presence.</t>
+          <t>The absence of nicotine dependence removes a potential confounding factor that can mask or complicate anxiety symptoms.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absence of prior stroke</t>
+          <t>Absence of asthma.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A history of stroke can lead to anxiety due to health concerns; its absence may indicate a lower likelihood of anxiety.</t>
+          <t>Asthma can be associated with anxiety, and its absence may reduce the likelihood of anxiety.</t>
         </is>
       </c>
     </row>
@@ -768,17 +769,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Social stress is a well-known trigger for anxiety disorders, making this finding highly relevant.</t>
+          <t>Recent social stress is a common trigger for anxiety, as stress can exacerbate or precipitate anxiety symptoms.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Alcohol use is absent.</t>
+          <t>Current tobacco use is absent.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of alcohol use is often associated with lower levels of anxiety, as many individuals with anxiety may use alcohol as a coping mechanism.</t>
+          <t>The absence of current tobacco use is a negative indicator for anxiety, as tobacco use is often associated with anxiety disorders.</t>
         </is>
       </c>
     </row>
@@ -790,17 +791,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prior tobacco use can be associated with anxiety, as individuals may use substances to cope with anxiety symptoms.</t>
+          <t>While not as strong as current use, prior tobacco use can be associated with anxiety due to withdrawal effects and past dependency.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Current tobacco use is absent.</t>
+          <t>Recent Travel is absent.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Current tobacco use is often linked to anxiety; its absence may suggest a lower likelihood of anxiety disorders.</t>
+          <t>The absence of recent travel reduces the likelihood of travel-related stress, which can be a trigger for anxiety.</t>
         </is>
       </c>
     </row>
@@ -812,51 +813,51 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A family history of cardiovascular issues may indicate a genetic predisposition to anxiety disorders, as stress and anxiety can impact heart health.</t>
+          <t>A family history of serious health conditions can contribute to anxiety due to concerns about personal health risks.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recent Travel is absent.</t>
+          <t>Recent medical procedure is absent.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Travel can be a source of stress for some, but its absence may indicate a stable environment, which is less likely to contribute to anxiety.</t>
+          <t>The absence of recent medical procedures reduces the likelihood of procedure-related stress, which can contribute to anxiety.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Family history of cancer is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of a family history of cancer does not directly support anxiety, but it may reduce health-related anxiety, making other findings more relevant.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Family history of Rheumatoid Arthritis is absent.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>The absence of a family history of chronic inflammatory diseases may suggest a lower likelihood of somatic symptoms that can complicate anxiety diagnoses.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Recent medical procedure is absent.</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of recent medical procedures may indicate a lack of acute stressors that could exacerbate anxiety symptoms.</t>
+          <t>The absence of a family history of chronic illness like rheumatoid arthritis reduces the likelihood of health-related anxiety.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Family history of cancer is absent.</t>
+          <t>Alcohol use is absent.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of a family history of cancer may reduce the stress and anxiety associated with hereditary cancer syndromes.</t>
+          <t>The absence of alcohol use can sometimes be associated with anxiety, as individuals may avoid alcohol due to its potential to exacerbate anxiety symptoms.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of gestational complications may suggest a more stable psychological state, reducing the likelihood of anxiety.</t>
+          <t>The absence of gestational complications reduces the likelihood of anxiety related to reproductive health concerns.</t>
         </is>
       </c>
     </row>
@@ -914,110 +915,261 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Telangiectasias on exam is present.</t>
+          <t>Weight loss on vitals is present.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Telangiectasias can be associated with anxiety disorders, as they may indicate stress-related physiological changes.</t>
+          <t>Weight loss can be associated with anxiety due to increased metabolic rate and decreased appetite.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of weakness on exam.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A hoarse voice can be a common symptom of anxiety; its absence suggests that anxiety may not be present.</t>
+          <t>Weakness can be a symptom of anxiety, so its absence may suggest anxiety is less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Weight loss on vitals is present.</t>
+          <t>Telangiectasias on exam is present.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weight loss can occur in anxiety disorders due to decreased appetite or increased metabolic rate from stress.</t>
+          <t>While not directly linked to anxiety, telangiectasias can be associated with stress-related conditions.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of hoarse voice observed.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of a cough may indicate that there are no anxiety-related respiratory symptoms, which are often present in anxious individuals.</t>
+          <t>A hoarse voice can be associated with anxiety due to tension in the vocal cords, so its absence may suggest anxiety is less likely.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cough observed is absent.</t>
+          <t>Absence of high blood pressure when checked.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of a cough may suggest that anxiety is not being exacerbated by respiratory issues, which can be a common concern in anxious patients.</t>
+          <t>Anxiety can sometimes present with normal blood pressure, especially if the patient is not currently experiencing an anxiety attack.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>Absence of cough observed.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that there are no significant stress-related physiological changes, which can be associated with anxiety.</t>
+          <t>Cough can be a somatic symptom of anxiety, so its absence may suggest anxiety is less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent.</t>
+          <t>Absence of obesity by vital signs.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A hoarse voice can be a sign of stress or anxiety; its absence may indicate that anxiety is not present.</t>
+          <t>Anxiety is not typically associated with obesity, and its absence does not contradict the presence of anxiety.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent.</t>
+          <t>Absence of epigastric pain on palpation.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Weakness can be a symptom of anxiety; its absence suggests that anxiety may not be present.</t>
+          <t>Epigastric pain can be associated with anxiety due to gastrointestinal distress, so its absence may suggest anxiety is less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon on exam is absent.</t>
+          <t>Absence of neck masses or fullness observed.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of Raynaud's phenomenon suggests that there are no significant stress-related vascular changes, which can be seen in anxiety.</t>
+          <t>Neck masses are not related to anxiety, so their absence does not contradict anxiety.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent.</t>
+          <t>Absence of red eye observed.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joint swelling is not typically associated with anxiety, and its absence further supports the idea that anxiety is not present.</t>
+          <t>Red eyes can be a result of stress or anxiety, so their absence may suggest anxiety is less likely.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Anxiety</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale for Anxiety</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Against Anxiety</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Against Anxiety</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia is not directly related to anxiety, but it can be associated with stress-related lifestyle factors that may contribute to anxiety.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA is more relevant to ruling out autoimmune diseases rather than anxiety, but it does not strongly argue against anxiety.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ANA strong positive is absent.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The absence of a strong positive ANA (Antinuclear Antibody) test, which is more indicative of autoimmune conditions, does not rule out anxiety and is thus weakly supportive of anxiety.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on MBS is not directly related to anxiety, but it is more relevant to swallowing disorders.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MBS shows aspiration is absent.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The absence of aspiration on Modified Barium Swallow (MBS) does not directly relate to anxiety, but it does not contradict it either.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The absence of ILD on CT scan is more relevant to ruling out lung diseases rather than anxiety.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT shows ILD is absent.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>The absence of Interstitial Lung Disease (ILD) on CT scan does not directly relate to anxiety, but it does not contradict it either.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on CXR is more relevant to ruling out certain thoracic conditions rather than anxiety.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CXR shows widened mediastinum is absent.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The absence of a widened mediastinum on Chest X-Ray (CXR) does not directly relate to anxiety, but it does not contradict it either.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Hyperlipidemia on lab testing is present.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>While hyperlipidemia can be associated with stress, it is not a direct indicator of anxiety and is more related to cardiovascular risk.</t>
         </is>
       </c>
     </row>
